--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.147715781355479</v>
+        <v>5.286477543181401</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9926382010553831</v>
+        <v>0.9829094730327006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.673529817700844</v>
+        <v>5.523457047120199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.226232999920258</v>
+        <v>5.386618980893835</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8608706161794102</v>
+        <v>0.8532731417671344</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.49449999176674</v>
+        <v>11.46044660475401</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.385476010669048</v>
+        <v>6.47105822846374</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.371819970508409</v>
+        <v>2.018820146847859</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.41431983755562</v>
+        <v>10.26600140090927</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.36968264261032</v>
+        <v>13.40654006383998</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.067116990293465</v>
+        <v>9.471947627236672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.87180125905706</v>
+        <v>14.6071143054021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.93999032306748</v>
+        <v>12.70624468294123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.391716751111094</v>
+        <v>9.180320860238988</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.05931566690834</v>
+        <v>18.88215748466052</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.2799840078057</v>
+        <v>12.41919041308596</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.147615496181636</v>
+        <v>8.190470550974739</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.2445963028124</v>
+        <v>16.11038575169955</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1740416074749742</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4441433422255902</v>
+        <v>0.44414334222559</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1886604136736359</v>
+        <v>0.1936523654686286</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04349509773015467</v>
+        <v>0.03573865869609841</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2073078951395652</v>
+        <v>0.2021649313069777</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1468689670037848</v>
+        <v>0.1523212267420685</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02419938183026554</v>
+        <v>0.02543296135401872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3279318138276934</v>
+        <v>0.3231024526801888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2081522922871368</v>
+        <v>0.2069824465315258</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07682706672609789</v>
+        <v>0.06107032424845493</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3332498706936777</v>
+        <v>0.3287751858782224</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5650892231954038</v>
+        <v>0.577588900144487</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.387487358156286</v>
+        <v>0.408854271256825</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6348932952768231</v>
+        <v>0.6212951470283516</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4133277820831441</v>
+        <v>0.4051912118822822</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2938363585100207</v>
+        <v>0.2894466073964912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6119032482327526</v>
+        <v>0.5937972223316262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4377923788335071</v>
+        <v>0.4399630650306292</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2811500247635677</v>
+        <v>0.2843070293434122</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5599579792308844</v>
+        <v>0.5706250752201462</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>4.726078696505312</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.206069933005282</v>
+        <v>7.206069933005285</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.658867981411862</v>
@@ -878,7 +878,7 @@
         <v>4.450391459116891</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.977797153653525</v>
+        <v>7.977797153653528</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.243626062594344</v>
+        <v>1.114821777342478</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.429671945519505</v>
+        <v>2.395091282098802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.670825154680811</v>
+        <v>6.950179451262476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5280198603661291</v>
+        <v>0.3777551313115814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.822090200248152</v>
+        <v>2.853034022249613</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.570116082565816</v>
+        <v>5.503833452606661</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.433795792744921</v>
+        <v>1.422347176672311</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.093338069434912</v>
+        <v>3.164076545578049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.826852137921064</v>
+        <v>6.766632271922266</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.816265297201273</v>
+        <v>4.681732028178979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.016661806515512</v>
+        <v>5.94537083489651</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.67825402666654</v>
+        <v>10.72178725839266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.089988753438123</v>
+        <v>4.007662192554857</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.689479518039818</v>
+        <v>6.773350472291362</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.954361108226122</v>
+        <v>8.894158517258347</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.05307626257662</v>
+        <v>3.915849164430963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.89111019655328</v>
+        <v>5.848251435549226</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.270031917427115</v>
+        <v>9.252410908231465</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1538721169528448</v>
+        <v>0.1515923607067664</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3256704611498776</v>
+        <v>0.3249010167104117</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8954384926014617</v>
+        <v>0.9340880102614444</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07335549709800421</v>
+        <v>0.05796873261472921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3904262359286581</v>
+        <v>0.403615686074591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7956349378881747</v>
+        <v>0.7481332048216149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2078932245769388</v>
+        <v>0.2090391995757272</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4454603403228805</v>
+        <v>0.4660705339539098</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9886919706855407</v>
+        <v>0.9791300809691781</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8696991510001689</v>
+        <v>0.8485985825191097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.081152978899805</v>
+        <v>1.078835416277418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.946638041432425</v>
+        <v>1.957746972544218</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8001896037517898</v>
+        <v>0.7801167830748857</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.315234588304205</v>
+        <v>1.31548614471309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.816740169317349</v>
+        <v>1.761756832039883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.723925512636477</v>
+        <v>0.692188402831362</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.080002204950058</v>
+        <v>1.042454923629601</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.655760148666567</v>
+        <v>1.628918671426722</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.546547368298314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.050718947697312</v>
+        <v>9.050718947697311</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6060694313853747</v>
@@ -1092,7 +1092,7 @@
         <v>0.4805434043058193</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.798992539260859</v>
+        <v>6.798992539260857</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.189370926884402</v>
+        <v>-2.144206422092998</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.141443356154938</v>
+        <v>-1.858015719453019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.454816305144063</v>
+        <v>5.678111992937188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.003624702524626</v>
+        <v>-2.262282080937369</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.709740781370299</v>
+        <v>-3.498037663633708</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.866256324949874</v>
+        <v>1.861906656796286</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.3977114572918</v>
+        <v>-1.439733184994087</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.976508718407407</v>
+        <v>-1.732510578352753</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.394700057527177</v>
+        <v>4.562218237477316</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.494752213066881</v>
+        <v>5.600862790623339</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.184862006116673</v>
+        <v>5.656402155118292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.51441619298259</v>
+        <v>12.60007068349865</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.278203200482158</v>
+        <v>4.372597301626828</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.579966905880475</v>
+        <v>2.762767061992384</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.41784041712973</v>
+        <v>7.478021952517308</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.64889565087181</v>
+        <v>3.574199163217913</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.751550255693326</v>
+        <v>3.061208214110111</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.046113881286857</v>
+        <v>9.174962001611885</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.06933196898308136</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9809468523019056</v>
+        <v>0.9809468523019051</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.225033930118291</v>
+        <v>-0.2296934233487147</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2198100369305884</v>
+        <v>-0.1946800712562131</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5405975338915032</v>
+        <v>0.5381365319214221</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4176986499810688</v>
+        <v>-0.3366800374216235</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4941690091652619</v>
+        <v>-0.4939284946662494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2088201303864829</v>
+        <v>0.2434073033055619</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1855724003648855</v>
+        <v>-0.1877071059298474</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2559257427995634</v>
+        <v>-0.2292789633131976</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5395249255412851</v>
+        <v>0.5482181677159625</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9424165635115378</v>
+        <v>0.8835284203016492</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8645310751671358</v>
+        <v>0.9987999379265419</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.115483615229651</v>
+        <v>2.145445292408339</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9637988468677845</v>
+        <v>1.012790833663344</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6099499936132892</v>
+        <v>0.6539583683287475</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.671969553244963</v>
+        <v>1.80504019926189</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5845066930784582</v>
+        <v>0.6047312390768743</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4699218562379187</v>
+        <v>0.5595002769220676</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.636436473136845</v>
+        <v>1.67438077750421</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.225916354285093</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.159848894001879</v>
+        <v>6.159848894001876</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.25791724127334</v>
@@ -1297,7 +1297,7 @@
         <v>1.081275293818912</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.875789036419719</v>
+        <v>3.875789036419722</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.140574447235418</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.244217282515435</v>
+        <v>2.105693935812023</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5647776492832886</v>
+        <v>0.4901026551125913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.387155308755326</v>
+        <v>4.383735898313886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.312695893704979</v>
+        <v>2.505493433263132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7094518465331752</v>
+        <v>-0.9451337431116961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.221644495199063</v>
+        <v>1.966603273914386</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.825013011186158</v>
+        <v>2.750305404585195</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3791853702616882</v>
+        <v>0.4014037238468379</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.862256192819675</v>
+        <v>3.914149363709571</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.763474139408281</v>
+        <v>5.580921536467678</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.957439809805039</v>
+        <v>3.965591686802441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.744419329214841</v>
+        <v>7.771542827424745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.150289221852296</v>
+        <v>6.191336989210225</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.846618534078753</v>
+        <v>2.895141626408143</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.524751483266746</v>
+        <v>5.406032029691021</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.462131679107146</v>
+        <v>5.42523035961538</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.893251433765607</v>
+        <v>2.904196923200613</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.118931968777165</v>
+        <v>6.252880037193354</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1762986532883701</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4878768523272627</v>
+        <v>0.4878768523272625</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2553914569284288</v>
@@ -1402,7 +1402,7 @@
         <v>0.0648552935581585</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.232471265332167</v>
+        <v>0.2324712653321672</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2820460240283321</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1651581975749212</v>
+        <v>0.1594922791961697</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03662140960776059</v>
+        <v>0.03685434466534769</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3214080132303398</v>
+        <v>0.3192051986608334</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1326125995579651</v>
+        <v>0.1399851439232302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04042404296786583</v>
+        <v>-0.05435753300509706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.126605687279344</v>
+        <v>0.1109684021090687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1857102302417972</v>
+        <v>0.1810994458382514</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02535948773731004</v>
+        <v>0.02586592052166163</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2504900760283575</v>
+        <v>0.2524134650878482</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.48609406267371</v>
+        <v>0.4761509014296709</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3309264444732345</v>
+        <v>0.3360671535507507</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6551223455219799</v>
+        <v>0.6542942040198289</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3901772827264042</v>
+        <v>0.3903306776246112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.180203443240737</v>
+        <v>0.1832835809139574</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.356857644336433</v>
+        <v>0.3436730522732725</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3900052325510445</v>
+        <v>0.3844478426896907</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2059729678604419</v>
+        <v>0.2068689636645383</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4371530817143498</v>
+        <v>0.4436311049518079</v>
       </c>
     </row>
     <row r="28">
